--- a/web/fmatt print version.xlsx
+++ b/web/fmatt print version.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="149">
   <si>
     <t>Total Missed Appointments</t>
   </si>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Introduction </t>
   </si>
   <si>
-    <t>The FMATT  is a  tool  that  helps HCW  longitudinaly followup the missed appointment clients/numbers  daily  and update their follouwup outcomes  aiming at returning them back to Care</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Column  </t>
     </r>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">Update this with the number of clients who retun back after a missed appointment but within the 29+ days. this is updated on a daily basis, filled in horizontally till the last day of the month. </t>
-  </si>
-  <si>
-    <t>08 to 38</t>
   </si>
   <si>
     <t xml:space="preserve">Total Missed appointment </t>
@@ -250,19 +244,7 @@
     </r>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>d-ah</t>
-  </si>
-  <si>
-    <t>aj</t>
   </si>
   <si>
     <t xml:space="preserve">Total LTFU </t>
@@ -286,16 +268,10 @@
     <t>Cumulative  total IIT on follow-up in the  facility Continue updating the numbers retention  status  along column d (ie  drop follow-up of any client who returns to care ,dies or is confirmed TO)Indicate clients who Return to care out of the cummulative IIT in column (b) above</t>
   </si>
   <si>
-    <t>Gives you the total # of clients who at the end of the month were (IIT-AJ,TO -AK,or Dead- AL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">On each Row,indicate the  updated number  of IIT  from the  column at the end of the month  this  is after  substracting all who return to care ,confirmed TO and dead </t>
   </si>
   <si>
     <t xml:space="preserve">On each Row, indicate total clients who drop from a IIT status  due to an acquired  confirmed status of Transfer out TO </t>
-  </si>
-  <si>
-    <t>The Facility  Interuption In treatment tracking tool ( FIITTT)  is a  tool  that  helps HCW  longitudinaly followup the IIT interruption In Treatment numbers  daily  and update there follouwup outcomes  aiming at returning them back to Care</t>
   </si>
   <si>
     <t xml:space="preserve">On each Row Indicate total clients who drop from a IIT status  due to an acquired  confirmed status of Transfer out TO </t>
@@ -427,9 +403,6 @@
     <t>Missed Appointments</t>
   </si>
   <si>
-    <t>Facility Missed Appointment Tracking Tool (FMATT) Version 1.0.0</t>
-  </si>
-  <si>
     <t>County:</t>
   </si>
   <si>
@@ -437,9 +410,6 @@
   </si>
   <si>
     <t>MFLCode:</t>
-  </si>
-  <si>
-    <t>Facility Interruption in treatment Tracking Tool (FIITTT) Version 1.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">LTFU Brought Forward from previous month/ cummulative </t>
@@ -527,6 +497,30 @@
   </si>
   <si>
     <t>FIIIT Instructions</t>
+  </si>
+  <si>
+    <t>USAID Tujenge Jamii Facility Missed Appointment Tracking Tool (FMATT) Version 1.0.0</t>
+  </si>
+  <si>
+    <t>USAID Tujenge Jamii Facility Interruption in treatment Tracking Tool (FIITTT) Version 1.0.0</t>
+  </si>
+  <si>
+    <t>The FMATT  is a  tool  that  helps HCW  longitudinally follow-up the missed appointment clients/numbers  daily  and update their follow-up outcomes  aiming at returning them back to Care. The production of this tool was made possible by the generous support of the American People through the USAID Tujenge Jamii Cooperative Agreement Number 72061521CA00006.</t>
+  </si>
+  <si>
+    <t>10 to 40</t>
+  </si>
+  <si>
+    <t>The Facility  Interuption In treatment tracking tool ( FIITTT)  is a  tool  that  helps HCW  longitudinaly followup the IIT interruption In Treatment numbers  daily  and update there follouwup outcomes  aiming at returning them back to Care.The production of this tool was made possible by the generous support of the American People through the USAID Tujenge Jamii Cooperative Agreement Number 72061521CA00006.</t>
+  </si>
+  <si>
+    <t>9-40</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Gives you the total # of clients who at the end of the month were (IIT-AI,TO -AJ,or Dead- AK)</t>
   </si>
 </sst>
 </file>
@@ -1921,8 +1915,11 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1930,29 +1927,52 @@
     <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="135"/>
@@ -1990,63 +2010,37 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2953,7 +2947,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,53 +2959,53 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="110" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B1" s="110"/>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>7</v>
@@ -3027,10 +3021,10 @@
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3038,85 +3032,85 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="111" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B13" s="111"/>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
-        <v>58</v>
+      <c r="A16" s="68">
+        <v>7</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
-        <v>59</v>
+      <c r="A17" s="68">
+        <v>8</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="68" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="68" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3124,15 +3118,15 @@
         <v>10</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3152,8 +3146,8 @@
   </sheetPr>
   <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -3211,142 +3205,142 @@
     </row>
     <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="56"/>
-      <c r="B3" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="T3" s="112"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
+      <c r="B3" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="143"/>
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153"/>
       <c r="X3" s="47"/>
-      <c r="Y3" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="112" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="153"/>
+      <c r="Y3" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="152"/>
       <c r="AI3" s="48"/>
       <c r="AJ3" s="48"/>
       <c r="AK3" s="44"/>
     </row>
     <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="129" t="s">
+      <c r="B4" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="AJ4" s="127" t="s">
+      <c r="AJ4" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="128"/>
-    </row>
-    <row r="5" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="123" t="s">
+      <c r="AK4" s="136"/>
+    </row>
+    <row r="5" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="138"/>
+      <c r="AJ5" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="125" t="s">
+      <c r="AK5" s="133" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>1</v>
@@ -3445,16 +3439,16 @@
       <c r="AH6" s="58">
         <v>31</v>
       </c>
-      <c r="AI6" s="131"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="126"/>
+      <c r="AI6" s="139"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="134"/>
     </row>
     <row r="7" spans="1:37" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>1</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
@@ -3488,7 +3482,7 @@
       <c r="AF7" s="51"/>
       <c r="AG7" s="29"/>
       <c r="AH7" s="51"/>
-      <c r="AI7" s="132"/>
+      <c r="AI7" s="140"/>
       <c r="AJ7" s="41"/>
       <c r="AK7" s="42"/>
     </row>
@@ -3497,7 +3491,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="26"/>
@@ -3531,7 +3525,7 @@
       <c r="AF8" s="25"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="34"/>
-      <c r="AI8" s="133"/>
+      <c r="AI8" s="141"/>
       <c r="AJ8" s="39"/>
       <c r="AK8" s="38"/>
     </row>
@@ -3540,7 +3534,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="31"/>
@@ -3574,7 +3568,7 @@
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
       <c r="AH9" s="35"/>
-      <c r="AI9" s="134"/>
+      <c r="AI9" s="142"/>
       <c r="AJ9" s="59"/>
       <c r="AK9" s="60"/>
     </row>
@@ -3583,11 +3577,11 @@
         <f>"miap"&amp;C10</f>
         <v>miap1st</v>
       </c>
-      <c r="B10" s="118" t="s">
-        <v>116</v>
+      <c r="B10" s="147" t="s">
+        <v>108</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="62"/>
@@ -3632,11 +3626,11 @@
         <f t="shared" ref="A11:A40" si="0">"miap"&amp;C11</f>
         <v>miap2nd</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="115"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="122"/>
       <c r="E11" s="83"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
@@ -3679,12 +3673,12 @@
         <f t="shared" si="0"/>
         <v>miap3rd</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="115"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="83"/>
       <c r="G12" s="109"/>
       <c r="H12" s="62"/>
@@ -3726,13 +3720,13 @@
         <f t="shared" si="0"/>
         <v>miap4th</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="83"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
@@ -3773,14 +3767,14 @@
         <f t="shared" si="0"/>
         <v>miap5th</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="115"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="122"/>
       <c r="H14" s="83"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
@@ -3820,15 +3814,15 @@
         <f t="shared" si="0"/>
         <v>miap6th</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="83"/>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
@@ -3867,16 +3861,16 @@
         <f t="shared" si="0"/>
         <v>miap7th</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="83"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62"/>
@@ -3914,17 +3908,17 @@
         <f t="shared" si="0"/>
         <v>miap8th</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="115"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="122"/>
       <c r="K17" s="83"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
@@ -3961,18 +3955,18 @@
         <f t="shared" si="0"/>
         <v>miap9th</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="115"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="122"/>
       <c r="L18" s="83"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
@@ -4008,19 +4002,19 @@
         <f t="shared" si="0"/>
         <v>miap10th</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="115"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="122"/>
       <c r="M19" s="83"/>
       <c r="N19" s="62"/>
       <c r="O19" s="62"/>
@@ -4055,20 +4049,20 @@
         <f t="shared" si="0"/>
         <v>miap11th</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="115"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="122"/>
       <c r="N20" s="83"/>
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
@@ -4102,21 +4096,21 @@
         <f t="shared" si="0"/>
         <v>miap12th</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="117"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="123"/>
       <c r="O21" s="83"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="62"/>
@@ -4149,22 +4143,22 @@
         <f t="shared" si="0"/>
         <v>miap13th</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="135"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="124"/>
       <c r="P22" s="83"/>
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
@@ -4196,23 +4190,23 @@
         <f t="shared" si="0"/>
         <v>miap14th</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="113" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="117"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="123"/>
       <c r="Q23" s="83"/>
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
@@ -4243,24 +4237,24 @@
         <f t="shared" si="0"/>
         <v>miap15th</v>
       </c>
-      <c r="B24" s="119"/>
-      <c r="C24" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
       <c r="R24" s="83"/>
       <c r="S24" s="62"/>
       <c r="T24" s="62"/>
@@ -4290,25 +4284,25 @@
         <f t="shared" si="0"/>
         <v>miap16th</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="114"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
       <c r="S25" s="83"/>
       <c r="T25" s="62"/>
       <c r="U25" s="62"/>
@@ -4337,26 +4331,26 @@
         <f t="shared" si="0"/>
         <v>miap17th</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="115"/>
       <c r="T26" s="83"/>
       <c r="U26" s="62"/>
       <c r="V26" s="62"/>
@@ -4384,27 +4378,27 @@
         <f t="shared" si="0"/>
         <v>miap18th</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="115"/>
       <c r="U27" s="83"/>
       <c r="V27" s="62"/>
       <c r="W27" s="62"/>
@@ -4431,28 +4425,28 @@
         <f t="shared" si="0"/>
         <v>miap19th</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="113" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
       <c r="V28" s="83"/>
       <c r="W28" s="62"/>
       <c r="X28" s="62"/>
@@ -4478,29 +4472,29 @@
         <f t="shared" si="0"/>
         <v>miap20th</v>
       </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="114"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="115"/>
+      <c r="S29" s="115"/>
+      <c r="T29" s="115"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="115"/>
       <c r="W29" s="83"/>
       <c r="X29" s="62"/>
       <c r="Y29" s="62"/>
@@ -4525,30 +4519,30 @@
         <f t="shared" si="0"/>
         <v>miap21st</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="115"/>
+      <c r="S30" s="115"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="115"/>
+      <c r="W30" s="115"/>
       <c r="X30" s="83"/>
       <c r="Y30" s="62"/>
       <c r="Z30" s="62"/>
@@ -4572,31 +4566,31 @@
         <f t="shared" si="0"/>
         <v>miap22nd</v>
       </c>
-      <c r="B31" s="119"/>
-      <c r="C31" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="115"/>
+      <c r="X31" s="115"/>
       <c r="Y31" s="83"/>
       <c r="Z31" s="62"/>
       <c r="AA31" s="62"/>
@@ -4619,32 +4613,32 @@
         <f t="shared" si="0"/>
         <v>miap23rd</v>
       </c>
-      <c r="B32" s="119"/>
-      <c r="C32" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="114"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="114"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="115"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="115"/>
+      <c r="W32" s="115"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="115"/>
       <c r="Z32" s="83"/>
       <c r="AA32" s="62"/>
       <c r="AB32" s="62"/>
@@ -4666,33 +4660,33 @@
         <f t="shared" si="0"/>
         <v>miap24th</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="114"/>
-      <c r="Z33" s="114"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="115"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="115"/>
+      <c r="Y33" s="115"/>
+      <c r="Z33" s="115"/>
       <c r="AA33" s="83"/>
       <c r="AB33" s="62"/>
       <c r="AC33" s="62"/>
@@ -4713,34 +4707,34 @@
         <f t="shared" si="0"/>
         <v>miap25th</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="114"/>
-      <c r="AA34" s="114"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="115"/>
+      <c r="S34" s="115"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="115"/>
+      <c r="Z34" s="115"/>
+      <c r="AA34" s="115"/>
       <c r="AB34" s="83"/>
       <c r="AC34" s="62"/>
       <c r="AD34" s="62"/>
@@ -4760,35 +4754,35 @@
         <f t="shared" si="0"/>
         <v>miap26th</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="114"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="114"/>
-      <c r="Y35" s="114"/>
-      <c r="Z35" s="114"/>
-      <c r="AA35" s="114"/>
-      <c r="AB35" s="114"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="115"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="115"/>
+      <c r="AB35" s="115"/>
       <c r="AC35" s="83"/>
       <c r="AD35" s="62"/>
       <c r="AE35" s="62"/>
@@ -4807,36 +4801,36 @@
         <f t="shared" si="0"/>
         <v>miap27th</v>
       </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="114"/>
-      <c r="S36" s="114"/>
-      <c r="T36" s="114"/>
-      <c r="U36" s="114"/>
-      <c r="V36" s="114"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="114"/>
-      <c r="Y36" s="114"/>
-      <c r="Z36" s="114"/>
-      <c r="AA36" s="114"/>
-      <c r="AB36" s="114"/>
-      <c r="AC36" s="114"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
+      <c r="R36" s="115"/>
+      <c r="S36" s="115"/>
+      <c r="T36" s="115"/>
+      <c r="U36" s="115"/>
+      <c r="V36" s="115"/>
+      <c r="W36" s="115"/>
+      <c r="X36" s="115"/>
+      <c r="Y36" s="115"/>
+      <c r="Z36" s="115"/>
+      <c r="AA36" s="115"/>
+      <c r="AB36" s="115"/>
+      <c r="AC36" s="115"/>
       <c r="AD36" s="83"/>
       <c r="AE36" s="62"/>
       <c r="AF36" s="62"/>
@@ -4854,37 +4848,37 @@
         <f t="shared" si="0"/>
         <v>miap28th</v>
       </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="114"/>
-      <c r="S37" s="114"/>
-      <c r="T37" s="114"/>
-      <c r="U37" s="114"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="114"/>
-      <c r="X37" s="114"/>
-      <c r="Y37" s="114"/>
-      <c r="Z37" s="114"/>
-      <c r="AA37" s="114"/>
-      <c r="AB37" s="114"/>
-      <c r="AC37" s="114"/>
-      <c r="AD37" s="114"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="115"/>
+      <c r="R37" s="115"/>
+      <c r="S37" s="115"/>
+      <c r="T37" s="115"/>
+      <c r="U37" s="115"/>
+      <c r="V37" s="115"/>
+      <c r="W37" s="115"/>
+      <c r="X37" s="115"/>
+      <c r="Y37" s="115"/>
+      <c r="Z37" s="115"/>
+      <c r="AA37" s="115"/>
+      <c r="AB37" s="115"/>
+      <c r="AC37" s="115"/>
+      <c r="AD37" s="115"/>
       <c r="AE37" s="83"/>
       <c r="AF37" s="62"/>
       <c r="AG37" s="62"/>
@@ -4901,38 +4895,38 @@
         <f t="shared" si="0"/>
         <v>miap29th</v>
       </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="145"/>
-      <c r="S38" s="145"/>
-      <c r="T38" s="145"/>
-      <c r="U38" s="145"/>
-      <c r="V38" s="145"/>
-      <c r="W38" s="145"/>
-      <c r="X38" s="145"/>
-      <c r="Y38" s="145"/>
-      <c r="Z38" s="145"/>
-      <c r="AA38" s="145"/>
-      <c r="AB38" s="145"/>
-      <c r="AC38" s="145"/>
-      <c r="AD38" s="145"/>
-      <c r="AE38" s="145"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="117"/>
+      <c r="AD38" s="117"/>
+      <c r="AE38" s="117"/>
       <c r="AF38" s="83"/>
       <c r="AG38" s="62"/>
       <c r="AH38" s="62"/>
@@ -4948,39 +4942,39 @@
         <f t="shared" si="0"/>
         <v>miap30th</v>
       </c>
-      <c r="B39" s="119"/>
-      <c r="C39" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
-      <c r="K39" s="145"/>
-      <c r="L39" s="145"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="145"/>
-      <c r="O39" s="145"/>
-      <c r="P39" s="145"/>
-      <c r="Q39" s="145"/>
-      <c r="R39" s="145"/>
-      <c r="S39" s="145"/>
-      <c r="T39" s="145"/>
-      <c r="U39" s="145"/>
-      <c r="V39" s="145"/>
-      <c r="W39" s="145"/>
-      <c r="X39" s="145"/>
-      <c r="Y39" s="145"/>
-      <c r="Z39" s="145"/>
-      <c r="AA39" s="145"/>
-      <c r="AB39" s="145"/>
-      <c r="AC39" s="145"/>
-      <c r="AD39" s="145"/>
-      <c r="AE39" s="145"/>
-      <c r="AF39" s="145"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="117"/>
+      <c r="T39" s="117"/>
+      <c r="U39" s="117"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="117"/>
+      <c r="X39" s="117"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="117"/>
+      <c r="AA39" s="117"/>
+      <c r="AB39" s="117"/>
+      <c r="AC39" s="117"/>
+      <c r="AD39" s="117"/>
+      <c r="AE39" s="117"/>
+      <c r="AF39" s="117"/>
       <c r="AG39" s="83"/>
       <c r="AH39" s="62"/>
       <c r="AI39" s="37" t="str">
@@ -4995,40 +4989,40 @@
         <f t="shared" si="0"/>
         <v>miap31st</v>
       </c>
-      <c r="B40" s="119"/>
-      <c r="C40" s="146" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="147"/>
-      <c r="O40" s="147"/>
-      <c r="P40" s="147"/>
-      <c r="Q40" s="147"/>
-      <c r="R40" s="147"/>
-      <c r="S40" s="147"/>
-      <c r="T40" s="147"/>
-      <c r="U40" s="147"/>
-      <c r="V40" s="147"/>
-      <c r="W40" s="147"/>
-      <c r="X40" s="147"/>
-      <c r="Y40" s="147"/>
-      <c r="Z40" s="147"/>
-      <c r="AA40" s="147"/>
-      <c r="AB40" s="147"/>
-      <c r="AC40" s="147"/>
-      <c r="AD40" s="147"/>
-      <c r="AE40" s="147"/>
-      <c r="AF40" s="147"/>
-      <c r="AG40" s="147"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="119"/>
+      <c r="U40" s="119"/>
+      <c r="V40" s="119"/>
+      <c r="W40" s="119"/>
+      <c r="X40" s="119"/>
+      <c r="Y40" s="119"/>
+      <c r="Z40" s="119"/>
+      <c r="AA40" s="119"/>
+      <c r="AB40" s="119"/>
+      <c r="AC40" s="119"/>
+      <c r="AD40" s="119"/>
+      <c r="AE40" s="119"/>
+      <c r="AF40" s="119"/>
+      <c r="AG40" s="119"/>
       <c r="AH40" s="83"/>
       <c r="AI40" s="37" t="str">
         <f ca="1">IFERROR(INDIRECT(ADDRESS(ROW(),SUMPRODUCT(MAX((AH40&lt;&gt;"")*COLUMN(AH40))))),"")</f>
@@ -5039,43 +5033,43 @@
     </row>
     <row r="41" spans="1:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="120"/>
-      <c r="C41" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="149"/>
+      <c r="C41" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="142"/>
-      <c r="N41" s="142"/>
-      <c r="O41" s="142"/>
-      <c r="P41" s="142"/>
-      <c r="Q41" s="142"/>
-      <c r="R41" s="142"/>
-      <c r="S41" s="142"/>
-      <c r="T41" s="142"/>
-      <c r="U41" s="142"/>
-      <c r="V41" s="142"/>
-      <c r="W41" s="142"/>
-      <c r="X41" s="142"/>
-      <c r="Y41" s="142"/>
-      <c r="Z41" s="142"/>
-      <c r="AA41" s="142"/>
-      <c r="AB41" s="142"/>
-      <c r="AC41" s="142"/>
-      <c r="AD41" s="142"/>
-      <c r="AE41" s="142"/>
-      <c r="AF41" s="142"/>
-      <c r="AG41" s="142"/>
-      <c r="AH41" s="143"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="121"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="112"/>
+      <c r="V41" s="112"/>
+      <c r="W41" s="112"/>
+      <c r="X41" s="112"/>
+      <c r="Y41" s="112"/>
+      <c r="Z41" s="112"/>
+      <c r="AA41" s="112"/>
+      <c r="AB41" s="112"/>
+      <c r="AC41" s="112"/>
+      <c r="AD41" s="112"/>
+      <c r="AE41" s="112"/>
+      <c r="AF41" s="112"/>
+      <c r="AG41" s="112"/>
+      <c r="AH41" s="113"/>
       <c r="AI41" s="61" t="str">
         <f ca="1">IF(SUM(AI10:AI40)=0,"",SUM(AI10:AI40))</f>
         <v/>
@@ -5131,19 +5125,19 @@
     <row r="43" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="138" t="s">
+      <c r="C43" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="139" t="s">
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="139"/>
+      <c r="K43" s="128"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -5174,17 +5168,17 @@
     <row r="44" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="136" t="s">
+      <c r="C44" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="137"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="126"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
@@ -5215,17 +5209,17 @@
     <row r="45" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="136" t="s">
+      <c r="C45" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="140"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="129"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -5256,17 +5250,17 @@
     <row r="46" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="136" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="137"/>
+      <c r="C46" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -5296,17 +5290,17 @@
     </row>
     <row r="47" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57"/>
-      <c r="C47" s="141" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="141"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="137"/>
+      <c r="C47" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
@@ -5337,17 +5331,17 @@
     <row r="48" spans="1:37" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="136" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="137"/>
+      <c r="C48" s="125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="126"/>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
@@ -6214,18 +6208,39 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="M41:AH41"/>
-    <mergeCell ref="C30:W30"/>
-    <mergeCell ref="C31:X31"/>
-    <mergeCell ref="C32:Y32"/>
-    <mergeCell ref="C33:Z33"/>
-    <mergeCell ref="C34:AA34"/>
-    <mergeCell ref="C38:AE38"/>
-    <mergeCell ref="C39:AF39"/>
-    <mergeCell ref="C40:AG40"/>
-    <mergeCell ref="C36:AC36"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="C37:AD37"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="C29:V29"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C27:T27"/>
+    <mergeCell ref="C28:U28"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C23:P23"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C25:R25"/>
+    <mergeCell ref="C26:S26"/>
+    <mergeCell ref="B10:B41"/>
+    <mergeCell ref="B4:AH5"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="AI7:AI9"/>
     <mergeCell ref="C20:M20"/>
     <mergeCell ref="C21:N21"/>
     <mergeCell ref="C22:O22"/>
@@ -6242,39 +6257,18 @@
     <mergeCell ref="C47:I47"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="C35:AB35"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="AI7:AI9"/>
-    <mergeCell ref="C29:V29"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C27:T27"/>
-    <mergeCell ref="C28:U28"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C23:P23"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C25:R25"/>
-    <mergeCell ref="C26:S26"/>
-    <mergeCell ref="B10:B41"/>
-    <mergeCell ref="B4:AH5"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="M41:AH41"/>
+    <mergeCell ref="C30:W30"/>
+    <mergeCell ref="C31:X31"/>
+    <mergeCell ref="C32:Y32"/>
+    <mergeCell ref="C33:Z33"/>
+    <mergeCell ref="C34:AA34"/>
+    <mergeCell ref="C38:AE38"/>
+    <mergeCell ref="C39:AF39"/>
+    <mergeCell ref="C40:AG40"/>
+    <mergeCell ref="C36:AC36"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="C37:AD37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG39 AE37 AC35 AA33 Y31 V28 U27 R24 P22 N20 L18 J16 H14 E10:E11 W28:AH29 X30:AH30 G13:AH13 I14:AH15 K16:AH17 M18:AH19 O20:AH21 Q22:AH23 S24:AH25 T26:U26 V26:AH27 D10 Z31:AH32 AB33:AH34 AD35:AH36 AF37:AH38 J44:K48 AH39:AH40 AJ10:AK40 F10:AH12 C7:AH9">
@@ -6300,7 +6294,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -6358,142 +6352,142 @@
     </row>
     <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="56"/>
-      <c r="B3" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="T3" s="112"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
+      <c r="B3" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="143"/>
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153"/>
       <c r="X3" s="47"/>
-      <c r="Y3" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="112" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="153"/>
+      <c r="Y3" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="152"/>
       <c r="AI3" s="48"/>
       <c r="AJ3" s="48"/>
       <c r="AK3" s="44"/>
     </row>
     <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ4" s="127" t="s">
+      <c r="B4" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="137" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ4" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="128"/>
+      <c r="AK4" s="136"/>
     </row>
     <row r="5" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="123" t="s">
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="138"/>
+      <c r="AJ5" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="125" t="s">
+      <c r="AK5" s="133" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>1</v>
@@ -6592,16 +6586,16 @@
       <c r="AH6" s="58">
         <v>31</v>
       </c>
-      <c r="AI6" s="131"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="126"/>
+      <c r="AI6" s="139"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="134"/>
     </row>
     <row r="7" spans="1:37" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>1</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
@@ -6635,7 +6629,7 @@
       <c r="AF7" s="29"/>
       <c r="AG7" s="29"/>
       <c r="AH7" s="36"/>
-      <c r="AI7" s="132"/>
+      <c r="AI7" s="140"/>
       <c r="AJ7" s="41"/>
       <c r="AK7" s="42"/>
     </row>
@@ -6644,7 +6638,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="26"/>
@@ -6678,7 +6672,7 @@
       <c r="AF8" s="25"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="34"/>
-      <c r="AI8" s="133"/>
+      <c r="AI8" s="141"/>
       <c r="AJ8" s="39"/>
       <c r="AK8" s="38"/>
     </row>
@@ -6686,11 +6680,11 @@
       <c r="A9" s="55">
         <v>4</v>
       </c>
-      <c r="B9" s="118" t="s">
-        <v>124</v>
+      <c r="B9" s="147" t="s">
+        <v>114</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="83"/>
       <c r="E9" s="27"/>
@@ -6734,11 +6728,11 @@
       <c r="A10" s="55">
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="115"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="122"/>
       <c r="E10" s="83"/>
       <c r="F10" s="28"/>
       <c r="G10" s="62"/>
@@ -6780,12 +6774,12 @@
       <c r="A11" s="55">
         <v>6</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="115"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="83"/>
       <c r="G11" s="109"/>
       <c r="H11" s="62"/>
@@ -6826,13 +6820,13 @@
       <c r="A12" s="55">
         <v>7</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="83"/>
       <c r="H12" s="109"/>
       <c r="I12" s="62"/>
@@ -6872,14 +6866,14 @@
       <c r="A13" s="55">
         <v>8</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="115"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="83"/>
       <c r="I13" s="109"/>
       <c r="J13" s="62"/>
@@ -6918,15 +6912,15 @@
       <c r="A14" s="55">
         <v>9</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="83"/>
       <c r="J14" s="109"/>
       <c r="K14" s="62"/>
@@ -6964,16 +6958,16 @@
       <c r="A15" s="55">
         <v>10</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="83"/>
       <c r="K15" s="109"/>
       <c r="L15" s="62"/>
@@ -7010,17 +7004,17 @@
       <c r="A16" s="55">
         <v>11</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="115"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="122"/>
       <c r="K16" s="83"/>
       <c r="L16" s="109"/>
       <c r="M16" s="62"/>
@@ -7056,18 +7050,18 @@
       <c r="A17" s="55">
         <v>12</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="115"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="122"/>
       <c r="L17" s="83"/>
       <c r="M17" s="109"/>
       <c r="N17" s="62"/>
@@ -7102,19 +7096,19 @@
       <c r="A18" s="55">
         <v>13</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="115"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="122"/>
       <c r="M18" s="83"/>
       <c r="N18" s="109"/>
       <c r="O18" s="62"/>
@@ -7148,20 +7142,20 @@
       <c r="A19" s="55">
         <v>14</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="115"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="83"/>
       <c r="O19" s="109"/>
       <c r="P19" s="62"/>
@@ -7194,21 +7188,21 @@
       <c r="A20" s="55">
         <v>15</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="117"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="123"/>
       <c r="O20" s="83"/>
       <c r="P20" s="109"/>
       <c r="Q20" s="62"/>
@@ -7240,22 +7234,22 @@
       <c r="A21" s="55">
         <v>16</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="135"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="124"/>
       <c r="P21" s="83"/>
       <c r="Q21" s="109"/>
       <c r="R21" s="62"/>
@@ -7286,23 +7280,23 @@
       <c r="A22" s="55">
         <v>17</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="113" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="117"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="123"/>
       <c r="Q22" s="83"/>
       <c r="R22" s="109"/>
       <c r="S22" s="62"/>
@@ -7332,24 +7326,24 @@
       <c r="A23" s="55">
         <v>18</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
       <c r="R23" s="83"/>
       <c r="S23" s="109"/>
       <c r="T23" s="62"/>
@@ -7378,25 +7372,25 @@
       <c r="A24" s="55">
         <v>19</v>
       </c>
-      <c r="B24" s="119"/>
-      <c r="C24" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="114"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="115"/>
       <c r="S24" s="83"/>
       <c r="T24" s="109"/>
       <c r="U24" s="62"/>
@@ -7424,26 +7418,26 @@
       <c r="A25" s="55">
         <v>20</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="114"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="115"/>
       <c r="T25" s="83"/>
       <c r="U25" s="109"/>
       <c r="V25" s="62"/>
@@ -7470,27 +7464,27 @@
       <c r="A26" s="55">
         <v>21</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="115"/>
+      <c r="T26" s="115"/>
       <c r="U26" s="83"/>
       <c r="V26" s="109"/>
       <c r="W26" s="62"/>
@@ -7516,28 +7510,28 @@
       <c r="A27" s="55">
         <v>22</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="113" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="115"/>
+      <c r="U27" s="115"/>
       <c r="V27" s="83"/>
       <c r="W27" s="109"/>
       <c r="X27" s="62"/>
@@ -7562,29 +7556,29 @@
       <c r="A28" s="55">
         <v>23</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="114"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
       <c r="W28" s="83"/>
       <c r="X28" s="109"/>
       <c r="Y28" s="62"/>
@@ -7608,30 +7602,30 @@
       <c r="A29" s="55">
         <v>24</v>
       </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="115"/>
+      <c r="S29" s="115"/>
+      <c r="T29" s="115"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="115"/>
+      <c r="W29" s="115"/>
       <c r="X29" s="83"/>
       <c r="Y29" s="109"/>
       <c r="Z29" s="62"/>
@@ -7654,31 +7648,31 @@
       <c r="A30" s="55">
         <v>25</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="115"/>
+      <c r="S30" s="115"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="115"/>
+      <c r="W30" s="115"/>
+      <c r="X30" s="115"/>
       <c r="Y30" s="83"/>
       <c r="Z30" s="109"/>
       <c r="AA30" s="62"/>
@@ -7700,32 +7694,32 @@
       <c r="A31" s="55">
         <v>26</v>
       </c>
-      <c r="B31" s="119"/>
-      <c r="C31" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114"/>
-      <c r="Y31" s="114"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="115"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="115"/>
       <c r="Z31" s="83"/>
       <c r="AA31" s="109"/>
       <c r="AB31" s="62"/>
@@ -7746,33 +7740,33 @@
       <c r="A32" s="55">
         <v>27</v>
       </c>
-      <c r="B32" s="119"/>
-      <c r="C32" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="114"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="114"/>
-      <c r="Z32" s="114"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="115"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="115"/>
+      <c r="W32" s="115"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="115"/>
+      <c r="Z32" s="115"/>
       <c r="AA32" s="83"/>
       <c r="AB32" s="109"/>
       <c r="AC32" s="62"/>
@@ -7792,34 +7786,34 @@
       <c r="A33" s="55">
         <v>28</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="114"/>
-      <c r="Z33" s="114"/>
-      <c r="AA33" s="114"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="115"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="115"/>
+      <c r="Y33" s="115"/>
+      <c r="Z33" s="115"/>
+      <c r="AA33" s="115"/>
       <c r="AB33" s="83"/>
       <c r="AC33" s="109"/>
       <c r="AD33" s="62"/>
@@ -7838,35 +7832,35 @@
       <c r="A34" s="55">
         <v>29</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="114"/>
-      <c r="AA34" s="114"/>
-      <c r="AB34" s="114"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="115"/>
+      <c r="S34" s="115"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="115"/>
+      <c r="Z34" s="115"/>
+      <c r="AA34" s="115"/>
+      <c r="AB34" s="115"/>
       <c r="AC34" s="83"/>
       <c r="AD34" s="109"/>
       <c r="AE34" s="62"/>
@@ -7884,36 +7878,36 @@
       <c r="A35" s="55">
         <v>30</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="114"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="114"/>
-      <c r="Y35" s="114"/>
-      <c r="Z35" s="114"/>
-      <c r="AA35" s="114"/>
-      <c r="AB35" s="114"/>
-      <c r="AC35" s="114"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="115"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="115"/>
+      <c r="AB35" s="115"/>
+      <c r="AC35" s="115"/>
       <c r="AD35" s="83"/>
       <c r="AE35" s="109"/>
       <c r="AF35" s="62"/>
@@ -7930,37 +7924,37 @@
       <c r="A36" s="55">
         <v>31</v>
       </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="114"/>
-      <c r="S36" s="114"/>
-      <c r="T36" s="114"/>
-      <c r="U36" s="114"/>
-      <c r="V36" s="114"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="114"/>
-      <c r="Y36" s="114"/>
-      <c r="Z36" s="114"/>
-      <c r="AA36" s="114"/>
-      <c r="AB36" s="114"/>
-      <c r="AC36" s="114"/>
-      <c r="AD36" s="114"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
+      <c r="R36" s="115"/>
+      <c r="S36" s="115"/>
+      <c r="T36" s="115"/>
+      <c r="U36" s="115"/>
+      <c r="V36" s="115"/>
+      <c r="W36" s="115"/>
+      <c r="X36" s="115"/>
+      <c r="Y36" s="115"/>
+      <c r="Z36" s="115"/>
+      <c r="AA36" s="115"/>
+      <c r="AB36" s="115"/>
+      <c r="AC36" s="115"/>
+      <c r="AD36" s="115"/>
       <c r="AE36" s="83"/>
       <c r="AF36" s="109"/>
       <c r="AG36" s="62"/>
@@ -7976,38 +7970,38 @@
       <c r="A37" s="55">
         <v>32</v>
       </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="145"/>
-      <c r="M37" s="145"/>
-      <c r="N37" s="145"/>
-      <c r="O37" s="145"/>
-      <c r="P37" s="145"/>
-      <c r="Q37" s="145"/>
-      <c r="R37" s="145"/>
-      <c r="S37" s="145"/>
-      <c r="T37" s="145"/>
-      <c r="U37" s="145"/>
-      <c r="V37" s="145"/>
-      <c r="W37" s="145"/>
-      <c r="X37" s="145"/>
-      <c r="Y37" s="145"/>
-      <c r="Z37" s="145"/>
-      <c r="AA37" s="145"/>
-      <c r="AB37" s="145"/>
-      <c r="AC37" s="145"/>
-      <c r="AD37" s="145"/>
-      <c r="AE37" s="145"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="117"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="117"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="117"/>
+      <c r="AB37" s="117"/>
+      <c r="AC37" s="117"/>
+      <c r="AD37" s="117"/>
+      <c r="AE37" s="117"/>
       <c r="AF37" s="83"/>
       <c r="AG37" s="109"/>
       <c r="AH37" s="62"/>
@@ -8022,39 +8016,39 @@
       <c r="A38" s="55">
         <v>33</v>
       </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="145"/>
-      <c r="S38" s="145"/>
-      <c r="T38" s="145"/>
-      <c r="U38" s="145"/>
-      <c r="V38" s="145"/>
-      <c r="W38" s="145"/>
-      <c r="X38" s="145"/>
-      <c r="Y38" s="145"/>
-      <c r="Z38" s="145"/>
-      <c r="AA38" s="145"/>
-      <c r="AB38" s="145"/>
-      <c r="AC38" s="145"/>
-      <c r="AD38" s="145"/>
-      <c r="AE38" s="145"/>
-      <c r="AF38" s="145"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="117"/>
+      <c r="AD38" s="117"/>
+      <c r="AE38" s="117"/>
+      <c r="AF38" s="117"/>
       <c r="AG38" s="83"/>
       <c r="AH38" s="109"/>
       <c r="AI38" s="37" t="str">
@@ -8068,40 +8062,40 @@
       <c r="A39" s="55">
         <v>34</v>
       </c>
-      <c r="B39" s="119"/>
-      <c r="C39" s="146" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="147"/>
-      <c r="N39" s="147"/>
-      <c r="O39" s="147"/>
-      <c r="P39" s="147"/>
-      <c r="Q39" s="147"/>
-      <c r="R39" s="147"/>
-      <c r="S39" s="147"/>
-      <c r="T39" s="147"/>
-      <c r="U39" s="147"/>
-      <c r="V39" s="147"/>
-      <c r="W39" s="147"/>
-      <c r="X39" s="147"/>
-      <c r="Y39" s="147"/>
-      <c r="Z39" s="147"/>
-      <c r="AA39" s="147"/>
-      <c r="AB39" s="147"/>
-      <c r="AC39" s="147"/>
-      <c r="AD39" s="147"/>
-      <c r="AE39" s="147"/>
-      <c r="AF39" s="147"/>
-      <c r="AG39" s="147"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
+      <c r="U39" s="119"/>
+      <c r="V39" s="119"/>
+      <c r="W39" s="119"/>
+      <c r="X39" s="119"/>
+      <c r="Y39" s="119"/>
+      <c r="Z39" s="119"/>
+      <c r="AA39" s="119"/>
+      <c r="AB39" s="119"/>
+      <c r="AC39" s="119"/>
+      <c r="AD39" s="119"/>
+      <c r="AE39" s="119"/>
+      <c r="AF39" s="119"/>
+      <c r="AG39" s="119"/>
       <c r="AH39" s="83"/>
       <c r="AI39" s="37" t="str">
         <f ca="1">IFERROR(INDIRECT(ADDRESS(ROW(),SUMPRODUCT(MAX((AH39&lt;&gt;"")*COLUMN(AH39))))),"")</f>
@@ -8114,41 +8108,41 @@
       <c r="A40" s="55">
         <v>35</v>
       </c>
-      <c r="B40" s="120"/>
-      <c r="C40" s="148" t="s">
+      <c r="B40" s="149"/>
+      <c r="C40" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="142"/>
-      <c r="N40" s="142"/>
-      <c r="O40" s="142"/>
-      <c r="P40" s="142"/>
-      <c r="Q40" s="142"/>
-      <c r="R40" s="142"/>
-      <c r="S40" s="142"/>
-      <c r="T40" s="142"/>
-      <c r="U40" s="142"/>
-      <c r="V40" s="142"/>
-      <c r="W40" s="142"/>
-      <c r="X40" s="142"/>
-      <c r="Y40" s="142"/>
-      <c r="Z40" s="142"/>
-      <c r="AA40" s="142"/>
-      <c r="AB40" s="142"/>
-      <c r="AC40" s="142"/>
-      <c r="AD40" s="142"/>
-      <c r="AE40" s="142"/>
-      <c r="AF40" s="142"/>
-      <c r="AG40" s="142"/>
-      <c r="AH40" s="143"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="112"/>
+      <c r="V40" s="112"/>
+      <c r="W40" s="112"/>
+      <c r="X40" s="112"/>
+      <c r="Y40" s="112"/>
+      <c r="Z40" s="112"/>
+      <c r="AA40" s="112"/>
+      <c r="AB40" s="112"/>
+      <c r="AC40" s="112"/>
+      <c r="AD40" s="112"/>
+      <c r="AE40" s="112"/>
+      <c r="AF40" s="112"/>
+      <c r="AG40" s="112"/>
+      <c r="AH40" s="113"/>
       <c r="AI40" s="61" t="str">
         <f ca="1">IF(SUM(AI9:AI39)=0,"",SUM(AI9:AI39))</f>
         <v/>
@@ -8204,19 +8198,19 @@
     <row r="42" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="77"/>
-      <c r="C42" s="138" t="s">
+      <c r="C42" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="139" t="s">
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="139"/>
+      <c r="K42" s="128"/>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
@@ -8247,17 +8241,17 @@
     <row r="43" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="77"/>
-      <c r="C43" s="136" t="s">
+      <c r="C43" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -8288,17 +8282,17 @@
     <row r="44" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="77"/>
-      <c r="C44" s="136" t="s">
+      <c r="C44" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="140"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
@@ -8329,17 +8323,17 @@
     <row r="45" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
       <c r="B45" s="77"/>
-      <c r="C45" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="137"/>
+      <c r="C45" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -8370,17 +8364,17 @@
     <row r="46" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="78"/>
-      <c r="C46" s="141" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="137"/>
+      <c r="C46" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -9247,16 +9241,39 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="59">
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="B4:AH5"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="C37:AE37"/>
+    <mergeCell ref="C38:AF38"/>
+    <mergeCell ref="M40:AH40"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="C31:Y31"/>
+    <mergeCell ref="C32:Z32"/>
+    <mergeCell ref="C33:AA33"/>
+    <mergeCell ref="C34:AB34"/>
+    <mergeCell ref="C35:AC35"/>
+    <mergeCell ref="C36:AD36"/>
+    <mergeCell ref="C26:T26"/>
+    <mergeCell ref="C27:U27"/>
+    <mergeCell ref="C28:V28"/>
+    <mergeCell ref="C29:W29"/>
+    <mergeCell ref="C39:AG39"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:P22"/>
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C24:R24"/>
+    <mergeCell ref="C25:S25"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AK5:AK6"/>
@@ -9273,39 +9290,16 @@
     <mergeCell ref="C30:X30"/>
     <mergeCell ref="C19:M19"/>
     <mergeCell ref="C20:N20"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C22:P22"/>
-    <mergeCell ref="C23:Q23"/>
-    <mergeCell ref="C24:R24"/>
-    <mergeCell ref="C25:S25"/>
-    <mergeCell ref="C26:T26"/>
-    <mergeCell ref="C27:U27"/>
-    <mergeCell ref="C28:V28"/>
-    <mergeCell ref="C29:W29"/>
-    <mergeCell ref="C39:AG39"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C31:Y31"/>
-    <mergeCell ref="C32:Z32"/>
-    <mergeCell ref="C33:AA33"/>
-    <mergeCell ref="C34:AB34"/>
-    <mergeCell ref="C35:AC35"/>
-    <mergeCell ref="C36:AD36"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="C37:AE37"/>
-    <mergeCell ref="C38:AF38"/>
-    <mergeCell ref="M40:AH40"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="B4:AH5"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG38 AE36 AC34 AA32 Y30 V27 U26 R23 P21 N19 L17 J15 H13 E10 W27:AH28 X29:AH29 G12:AH12 I13:AH14 K15:AH16 M17:AH18 O19:AH20 Q21:AH22 S23:AH24 T25:U25 V25:AH26 C7:AH8 Z30:AH31 AB32:AH33 AD34:AH35 AF36:AH37 J43:K46 AH38:AH39 D9:AH9 F10:AH11 AJ9:AK39">
@@ -9347,121 +9341,121 @@
   <sheetData>
     <row r="1" spans="1:39" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="J1" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="K1" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="M1" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="79" t="s">
+      <c r="N1" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="Q1" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="R1" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="S1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="T1" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="U1" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="V1" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="W1" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="X1" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="79" t="s">
+      <c r="Y1" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="79" t="s">
+      <c r="Z1" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="AA1" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="AB1" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="79" t="s">
+      <c r="AC1" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="79" t="s">
+      <c r="AD1" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="79" t="s">
+      <c r="AE1" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="79" t="s">
+      <c r="AF1" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="79" t="s">
+      <c r="AG1" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="79" t="s">
+      <c r="AH1" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="79" t="s">
+      <c r="AI1" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="79" t="s">
+      <c r="AJ1" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="79" t="s">
+      <c r="AK1" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="AD1" s="79" t="s">
+      <c r="AL1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF1" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG1" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH1" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI1" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ1" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK1" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="79" t="s">
-        <v>115</v>
-      </c>
       <c r="AM1" s="79" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -9478,10 +9472,10 @@
         <v/>
       </c>
       <c r="D2" s="85" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="91" t="str">
         <f>CONCATENATE("miap_",E2)</f>
@@ -9631,10 +9625,10 @@
         <v/>
       </c>
       <c r="D3" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="88" t="str">
         <f t="shared" ref="F3:F33" si="1">CONCATENATE("miap_",E3)</f>
@@ -9781,10 +9775,10 @@
         <v/>
       </c>
       <c r="D4" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="88" t="str">
         <f t="shared" si="1"/>
@@ -9928,10 +9922,10 @@
         <v/>
       </c>
       <c r="D5" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10072,10 +10066,10 @@
         <v/>
       </c>
       <c r="D6" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10213,10 +10207,10 @@
         <v/>
       </c>
       <c r="D7" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10351,10 +10345,10 @@
         <v/>
       </c>
       <c r="D8" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10486,10 +10480,10 @@
         <v/>
       </c>
       <c r="D9" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10618,10 +10612,10 @@
         <v/>
       </c>
       <c r="D10" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10747,10 +10741,10 @@
         <v/>
       </c>
       <c r="D11" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10873,10 +10867,10 @@
         <v/>
       </c>
       <c r="D12" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10996,10 +10990,10 @@
         <v/>
       </c>
       <c r="D13" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F13" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11116,10 +11110,10 @@
         <v/>
       </c>
       <c r="D14" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11233,10 +11227,10 @@
         <v/>
       </c>
       <c r="D15" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11347,10 +11341,10 @@
         <v/>
       </c>
       <c r="D16" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11458,10 +11452,10 @@
         <v/>
       </c>
       <c r="D17" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11566,10 +11560,10 @@
         <v/>
       </c>
       <c r="D18" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11671,10 +11665,10 @@
         <v/>
       </c>
       <c r="D19" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11773,10 +11767,10 @@
         <v/>
       </c>
       <c r="D20" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11872,10 +11866,10 @@
         <v/>
       </c>
       <c r="D21" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11968,10 +11962,10 @@
         <v/>
       </c>
       <c r="D22" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E22" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12061,10 +12055,10 @@
         <v/>
       </c>
       <c r="D23" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12151,10 +12145,10 @@
         <v/>
       </c>
       <c r="D24" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E24" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F24" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12238,10 +12232,10 @@
         <v/>
       </c>
       <c r="D25" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12322,10 +12316,10 @@
         <v/>
       </c>
       <c r="D26" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12403,10 +12397,10 @@
         <v/>
       </c>
       <c r="D27" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12481,10 +12475,10 @@
         <v/>
       </c>
       <c r="D28" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E28" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12556,10 +12550,10 @@
         <v/>
       </c>
       <c r="D29" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12628,10 +12622,10 @@
         <v/>
       </c>
       <c r="D30" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12697,10 +12691,10 @@
         <v/>
       </c>
       <c r="D31" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12763,10 +12757,10 @@
         <v/>
       </c>
       <c r="D32" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12826,10 +12820,10 @@
         <v/>
       </c>
       <c r="D33" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F33" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12886,13 +12880,13 @@
         <v/>
       </c>
       <c r="D34" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F34" s="90" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G34" s="80" t="str">
         <f>IF(ISBLANK(FMATT!C7),"",FMATT!C7)</f>
@@ -13041,13 +13035,13 @@
         <v/>
       </c>
       <c r="D35" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E35" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F35" s="90" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G35" s="80" t="str">
         <f>IF(ISBLANK(FMATT!C8),"",FMATT!C8)</f>
@@ -13196,13 +13190,13 @@
         <v/>
       </c>
       <c r="D36" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F36" s="88" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G36" s="80" t="str">
         <f>IF(ISBLANK(FMATT!C9),"",FMATT!C9)</f>
@@ -13351,13 +13345,13 @@
         <v/>
       </c>
       <c r="D37" s="85" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F37" s="91" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G37" s="85"/>
       <c r="H37" s="85"/>
@@ -13410,13 +13404,13 @@
         <v/>
       </c>
       <c r="D38" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E38" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F38" s="90" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G38" s="80"/>
       <c r="H38" s="80"/>
@@ -13469,13 +13463,13 @@
         <v/>
       </c>
       <c r="D39" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E39" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F39" s="90" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G39" s="80"/>
       <c r="H39" s="80"/>
@@ -13528,10 +13522,10 @@
         <v/>
       </c>
       <c r="D40" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E40" s="80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F40" s="88" t="str">
         <f>CONCATENATE("to_fmatt_",E40)</f>
@@ -13588,10 +13582,10 @@
         <v/>
       </c>
       <c r="D41" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F41" s="88" t="str">
         <f t="shared" ref="F41:F71" si="2">CONCATENATE("to_fmatt_",E41)</f>
@@ -13648,10 +13642,10 @@
         <v/>
       </c>
       <c r="D42" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E42" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F42" s="88" t="str">
         <f t="shared" si="2"/>
@@ -13708,10 +13702,10 @@
         <v/>
       </c>
       <c r="D43" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E43" s="80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F43" s="88" t="str">
         <f t="shared" si="2"/>
@@ -13768,10 +13762,10 @@
         <v/>
       </c>
       <c r="D44" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E44" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F44" s="88" t="str">
         <f t="shared" si="2"/>
@@ -13828,10 +13822,10 @@
         <v/>
       </c>
       <c r="D45" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E45" s="82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F45" s="88" t="str">
         <f t="shared" si="2"/>
@@ -13888,10 +13882,10 @@
         <v/>
       </c>
       <c r="D46" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E46" s="80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F46" s="88" t="str">
         <f t="shared" si="2"/>
@@ -13948,10 +13942,10 @@
         <v/>
       </c>
       <c r="D47" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E47" s="82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F47" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14008,10 +14002,10 @@
         <v/>
       </c>
       <c r="D48" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F48" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14068,10 +14062,10 @@
         <v/>
       </c>
       <c r="D49" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E49" s="82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F49" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14128,10 +14122,10 @@
         <v/>
       </c>
       <c r="D50" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E50" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F50" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14188,10 +14182,10 @@
         <v/>
       </c>
       <c r="D51" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E51" s="82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F51" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14248,10 +14242,10 @@
         <v/>
       </c>
       <c r="D52" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E52" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F52" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14308,10 +14302,10 @@
         <v/>
       </c>
       <c r="D53" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E53" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F53" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14368,10 +14362,10 @@
         <v/>
       </c>
       <c r="D54" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E54" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F54" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14428,10 +14422,10 @@
         <v/>
       </c>
       <c r="D55" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E55" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F55" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14488,10 +14482,10 @@
         <v/>
       </c>
       <c r="D56" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E56" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F56" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14548,10 +14542,10 @@
         <v/>
       </c>
       <c r="D57" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E57" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F57" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14608,10 +14602,10 @@
         <v/>
       </c>
       <c r="D58" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E58" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F58" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14668,10 +14662,10 @@
         <v/>
       </c>
       <c r="D59" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E59" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F59" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14728,10 +14722,10 @@
         <v/>
       </c>
       <c r="D60" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E60" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F60" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14788,10 +14782,10 @@
         <v/>
       </c>
       <c r="D61" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E61" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F61" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14848,10 +14842,10 @@
         <v/>
       </c>
       <c r="D62" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E62" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F62" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14908,10 +14902,10 @@
         <v/>
       </c>
       <c r="D63" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E63" s="82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F63" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14968,10 +14962,10 @@
         <v/>
       </c>
       <c r="D64" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E64" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F64" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15028,10 +15022,10 @@
         <v/>
       </c>
       <c r="D65" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E65" s="82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F65" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15088,10 +15082,10 @@
         <v/>
       </c>
       <c r="D66" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E66" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F66" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15148,10 +15142,10 @@
         <v/>
       </c>
       <c r="D67" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E67" s="82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F67" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15208,10 +15202,10 @@
         <v/>
       </c>
       <c r="D68" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E68" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F68" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15268,10 +15262,10 @@
         <v/>
       </c>
       <c r="D69" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E69" s="82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F69" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15328,10 +15322,10 @@
         <v/>
       </c>
       <c r="D70" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E70" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F70" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15388,10 +15382,10 @@
         <v/>
       </c>
       <c r="D71" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E71" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F71" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15448,13 +15442,13 @@
         <v/>
       </c>
       <c r="D72" s="85" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E72" s="85" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F72" s="91" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G72" s="85"/>
       <c r="H72" s="85"/>
@@ -15507,13 +15501,13 @@
         <v/>
       </c>
       <c r="D73" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E73" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F73" s="90" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G73" s="80"/>
       <c r="H73" s="80"/>
@@ -15566,13 +15560,13 @@
         <v/>
       </c>
       <c r="D74" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E74" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F74" s="90" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G74" s="80"/>
       <c r="H74" s="80"/>
@@ -15625,10 +15619,10 @@
         <v/>
       </c>
       <c r="D75" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E75" s="80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F75" s="88" t="str">
         <f>CONCATENATE("died_fmatt_",E75)</f>
@@ -15685,10 +15679,10 @@
         <v/>
       </c>
       <c r="D76" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E76" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F76" s="88" t="str">
         <f t="shared" ref="F76:F106" si="5">CONCATENATE("died_fmatt_",E76)</f>
@@ -15745,10 +15739,10 @@
         <v/>
       </c>
       <c r="D77" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E77" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F77" s="88" t="str">
         <f t="shared" si="5"/>
@@ -15805,10 +15799,10 @@
         <v/>
       </c>
       <c r="D78" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E78" s="80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F78" s="88" t="str">
         <f t="shared" si="5"/>
@@ -15865,10 +15859,10 @@
         <v/>
       </c>
       <c r="D79" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E79" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F79" s="88" t="str">
         <f t="shared" si="5"/>
@@ -15925,10 +15919,10 @@
         <v/>
       </c>
       <c r="D80" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F80" s="88" t="str">
         <f t="shared" si="5"/>
@@ -15985,10 +15979,10 @@
         <v/>
       </c>
       <c r="D81" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E81" s="80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F81" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16045,10 +16039,10 @@
         <v/>
       </c>
       <c r="D82" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E82" s="82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F82" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16105,10 +16099,10 @@
         <v/>
       </c>
       <c r="D83" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E83" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F83" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16165,10 +16159,10 @@
         <v/>
       </c>
       <c r="D84" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E84" s="82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F84" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16225,10 +16219,10 @@
         <v/>
       </c>
       <c r="D85" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E85" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F85" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16285,10 +16279,10 @@
         <v/>
       </c>
       <c r="D86" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E86" s="82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F86" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16345,10 +16339,10 @@
         <v/>
       </c>
       <c r="D87" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E87" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F87" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16405,10 +16399,10 @@
         <v/>
       </c>
       <c r="D88" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E88" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F88" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16465,10 +16459,10 @@
         <v/>
       </c>
       <c r="D89" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E89" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F89" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16525,10 +16519,10 @@
         <v/>
       </c>
       <c r="D90" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E90" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F90" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16585,10 +16579,10 @@
         <v/>
       </c>
       <c r="D91" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E91" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F91" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16645,10 +16639,10 @@
         <v/>
       </c>
       <c r="D92" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E92" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F92" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16705,10 +16699,10 @@
         <v/>
       </c>
       <c r="D93" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E93" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F93" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16765,10 +16759,10 @@
         <v/>
       </c>
       <c r="D94" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E94" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F94" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16825,10 +16819,10 @@
         <v/>
       </c>
       <c r="D95" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E95" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F95" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16885,10 +16879,10 @@
         <v/>
       </c>
       <c r="D96" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E96" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F96" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16945,10 +16939,10 @@
         <v/>
       </c>
       <c r="D97" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E97" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F97" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17005,10 +16999,10 @@
         <v/>
       </c>
       <c r="D98" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E98" s="82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F98" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17065,10 +17059,10 @@
         <v/>
       </c>
       <c r="D99" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E99" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F99" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17125,10 +17119,10 @@
         <v/>
       </c>
       <c r="D100" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E100" s="82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F100" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17185,10 +17179,10 @@
         <v/>
       </c>
       <c r="D101" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E101" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F101" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17245,10 +17239,10 @@
         <v/>
       </c>
       <c r="D102" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E102" s="82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F102" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17305,10 +17299,10 @@
         <v/>
       </c>
       <c r="D103" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E103" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F103" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17365,10 +17359,10 @@
         <v/>
       </c>
       <c r="D104" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E104" s="82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F104" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17425,10 +17419,10 @@
         <v/>
       </c>
       <c r="D105" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E105" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F105" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17485,10 +17479,10 @@
         <v/>
       </c>
       <c r="D106" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E106" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F106" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17545,10 +17539,10 @@
         <v/>
       </c>
       <c r="D107" s="85" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E107" s="85" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F107" s="91" t="str">
         <f>CONCATENATE("to_fmatt_sum_",E107)</f>
@@ -17605,10 +17599,10 @@
         <v/>
       </c>
       <c r="D108" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E108" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F108" s="90" t="str">
         <f>CONCATENATE("died_fmatt_sum_",E108)</f>
@@ -17665,10 +17659,10 @@
         <v/>
       </c>
       <c r="D109" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E109" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F109" s="90" t="str">
         <f>CONCATENATE("miap_def_btc_sum_",E109)</f>
@@ -17725,10 +17719,10 @@
         <v/>
       </c>
       <c r="D110" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E110" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F110" s="90" t="str">
         <f>CONCATENATE("miap_grad_ltfu_sum_",E110)</f>
@@ -17785,10 +17779,10 @@
         <v/>
       </c>
       <c r="D111" s="100" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E111" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F111" s="90" t="str">
         <f>CONCATENATE("miap_def_sum_",E111)</f>
@@ -17845,10 +17839,10 @@
         <v/>
       </c>
       <c r="D112" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E112" s="97" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F112" s="91" t="str">
         <f>CONCATENATE("iit_",E112)</f>
@@ -17998,10 +17992,10 @@
         <v/>
       </c>
       <c r="D113" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E113" s="98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F113" s="90" t="str">
         <f t="shared" ref="F113:F143" si="6">CONCATENATE("iit_",E113)</f>
@@ -18148,10 +18142,10 @@
         <v/>
       </c>
       <c r="D114" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E114" s="98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F114" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18295,10 +18289,10 @@
         <v/>
       </c>
       <c r="D115" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E115" s="98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F115" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18439,10 +18433,10 @@
         <v/>
       </c>
       <c r="D116" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E116" s="98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F116" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18580,10 +18574,10 @@
         <v/>
       </c>
       <c r="D117" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E117" s="99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F117" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18718,10 +18712,10 @@
         <v/>
       </c>
       <c r="D118" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E118" s="98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F118" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18853,10 +18847,10 @@
         <v/>
       </c>
       <c r="D119" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E119" s="99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F119" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18985,10 +18979,10 @@
         <v/>
       </c>
       <c r="D120" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E120" s="98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F120" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19114,10 +19108,10 @@
         <v/>
       </c>
       <c r="D121" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E121" s="99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F121" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19240,10 +19234,10 @@
         <v/>
       </c>
       <c r="D122" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E122" s="98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F122" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19363,10 +19357,10 @@
         <v/>
       </c>
       <c r="D123" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E123" s="99" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F123" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19483,10 +19477,10 @@
         <v/>
       </c>
       <c r="D124" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E124" s="98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F124" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19600,10 +19594,10 @@
         <v/>
       </c>
       <c r="D125" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E125" s="99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F125" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19714,10 +19708,10 @@
         <v/>
       </c>
       <c r="D126" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E126" s="98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F126" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19825,10 +19819,10 @@
         <v/>
       </c>
       <c r="D127" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E127" s="99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F127" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19933,10 +19927,10 @@
         <v/>
       </c>
       <c r="D128" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E128" s="98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F128" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20038,10 +20032,10 @@
         <v/>
       </c>
       <c r="D129" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E129" s="99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F129" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20140,10 +20134,10 @@
         <v/>
       </c>
       <c r="D130" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E130" s="98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F130" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20239,10 +20233,10 @@
         <v/>
       </c>
       <c r="D131" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E131" s="99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F131" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20335,10 +20329,10 @@
         <v/>
       </c>
       <c r="D132" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E132" s="98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F132" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20428,10 +20422,10 @@
         <v/>
       </c>
       <c r="D133" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E133" s="99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F133" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20518,10 +20512,10 @@
         <v/>
       </c>
       <c r="D134" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E134" s="98" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F134" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20605,10 +20599,10 @@
         <v/>
       </c>
       <c r="D135" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E135" s="99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F135" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20689,10 +20683,10 @@
         <v/>
       </c>
       <c r="D136" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E136" s="98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F136" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20770,10 +20764,10 @@
         <v/>
       </c>
       <c r="D137" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E137" s="99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F137" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20848,10 +20842,10 @@
         <v/>
       </c>
       <c r="D138" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E138" s="98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F138" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20923,10 +20917,10 @@
         <v/>
       </c>
       <c r="D139" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E139" s="99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F139" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20995,10 +20989,10 @@
         <v/>
       </c>
       <c r="D140" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E140" s="98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F140" s="90" t="str">
         <f t="shared" si="6"/>
@@ -21064,10 +21058,10 @@
         <v/>
       </c>
       <c r="D141" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E141" s="99" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F141" s="90" t="str">
         <f t="shared" si="6"/>
@@ -21130,10 +21124,10 @@
         <v/>
       </c>
       <c r="D142" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E142" s="98" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F142" s="90" t="str">
         <f t="shared" si="6"/>
@@ -21193,10 +21187,10 @@
         <v/>
       </c>
       <c r="D143" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E143" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F143" s="90" t="str">
         <f t="shared" si="6"/>
@@ -21252,13 +21246,13 @@
         <v/>
       </c>
       <c r="D144" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E144" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F144" s="90" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G144" s="80" t="str">
         <f>IF(ISBLANK(FIIITT!C7),"",FIIITT!C7)</f>
@@ -21407,13 +21401,13 @@
         <v/>
       </c>
       <c r="D145" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E145" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F145" s="90" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G145" s="80" t="str">
         <f>IF(ISBLANK(FIIITT!C8),"",FIIITT!C8)</f>
@@ -21562,13 +21556,13 @@
         <v/>
       </c>
       <c r="D146" s="107" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E146" s="107" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F146" s="106" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G146" s="107"/>
       <c r="H146" s="107"/>
@@ -21621,13 +21615,13 @@
         <v/>
       </c>
       <c r="D147" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E147" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F147" s="90" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G147" s="80"/>
       <c r="H147" s="80"/>
@@ -21680,10 +21674,10 @@
         <v/>
       </c>
       <c r="D148" s="105" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E148" s="105" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F148" s="104" t="str">
         <f>CONCATENATE("to_fiiit_",E148)</f>
@@ -21740,10 +21734,10 @@
         <v/>
       </c>
       <c r="D149" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E149" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F149" s="104" t="str">
         <f t="shared" ref="F149:F179" si="8">CONCATENATE("to_fiiit_",E149)</f>
@@ -21800,10 +21794,10 @@
         <v/>
       </c>
       <c r="D150" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E150" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F150" s="104" t="str">
         <f t="shared" si="8"/>
@@ -21860,10 +21854,10 @@
         <v/>
       </c>
       <c r="D151" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E151" s="80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F151" s="104" t="str">
         <f t="shared" si="8"/>
@@ -21920,10 +21914,10 @@
         <v/>
       </c>
       <c r="D152" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E152" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F152" s="104" t="str">
         <f t="shared" si="8"/>
@@ -21980,10 +21974,10 @@
         <v/>
       </c>
       <c r="D153" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E153" s="82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F153" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22040,10 +22034,10 @@
         <v/>
       </c>
       <c r="D154" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E154" s="80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F154" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22100,10 +22094,10 @@
         <v/>
       </c>
       <c r="D155" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E155" s="82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F155" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22160,10 +22154,10 @@
         <v/>
       </c>
       <c r="D156" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E156" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F156" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22220,10 +22214,10 @@
         <v/>
       </c>
       <c r="D157" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E157" s="82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F157" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22280,10 +22274,10 @@
         <v/>
       </c>
       <c r="D158" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E158" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F158" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22340,10 +22334,10 @@
         <v/>
       </c>
       <c r="D159" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E159" s="82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F159" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22400,10 +22394,10 @@
         <v/>
       </c>
       <c r="D160" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E160" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F160" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22460,10 +22454,10 @@
         <v/>
       </c>
       <c r="D161" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E161" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F161" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22520,10 +22514,10 @@
         <v/>
       </c>
       <c r="D162" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E162" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F162" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22580,10 +22574,10 @@
         <v/>
       </c>
       <c r="D163" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E163" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F163" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22640,10 +22634,10 @@
         <v/>
       </c>
       <c r="D164" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E164" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F164" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22700,10 +22694,10 @@
         <v/>
       </c>
       <c r="D165" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E165" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F165" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22760,10 +22754,10 @@
         <v/>
       </c>
       <c r="D166" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E166" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F166" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22820,10 +22814,10 @@
         <v/>
       </c>
       <c r="D167" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E167" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F167" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22880,10 +22874,10 @@
         <v/>
       </c>
       <c r="D168" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E168" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F168" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22940,10 +22934,10 @@
         <v/>
       </c>
       <c r="D169" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E169" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F169" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23000,10 +22994,10 @@
         <v/>
       </c>
       <c r="D170" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E170" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F170" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23060,10 +23054,10 @@
         <v/>
       </c>
       <c r="D171" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E171" s="82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F171" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23120,10 +23114,10 @@
         <v/>
       </c>
       <c r="D172" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E172" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F172" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23180,10 +23174,10 @@
         <v/>
       </c>
       <c r="D173" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E173" s="82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F173" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23240,10 +23234,10 @@
         <v/>
       </c>
       <c r="D174" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E174" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F174" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23300,10 +23294,10 @@
         <v/>
       </c>
       <c r="D175" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E175" s="82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F175" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23360,10 +23354,10 @@
         <v/>
       </c>
       <c r="D176" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E176" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F176" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23420,10 +23414,10 @@
         <v/>
       </c>
       <c r="D177" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E177" s="82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F177" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23480,10 +23474,10 @@
         <v/>
       </c>
       <c r="D178" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E178" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F178" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23540,10 +23534,10 @@
         <v/>
       </c>
       <c r="D179" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E179" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F179" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23600,13 +23594,13 @@
         <v/>
       </c>
       <c r="D180" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E180" s="107" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F180" s="106" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G180" s="80"/>
       <c r="H180" s="80"/>
@@ -23659,13 +23653,13 @@
         <v/>
       </c>
       <c r="D181" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E181" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F181" s="90" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G181" s="80"/>
       <c r="H181" s="80"/>
@@ -23718,10 +23712,10 @@
         <v/>
       </c>
       <c r="D182" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E182" s="105" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F182" s="104" t="str">
         <f>CONCATENATE("died_fiiit_",E182)</f>
@@ -23778,10 +23772,10 @@
         <v/>
       </c>
       <c r="D183" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E183" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F183" s="104" t="str">
         <f t="shared" ref="F183:F213" si="9">CONCATENATE("died_fiiit_",E183)</f>
@@ -23838,10 +23832,10 @@
         <v/>
       </c>
       <c r="D184" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E184" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F184" s="104" t="str">
         <f t="shared" si="9"/>
@@ -23898,10 +23892,10 @@
         <v/>
       </c>
       <c r="D185" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E185" s="80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F185" s="104" t="str">
         <f t="shared" si="9"/>
@@ -23958,10 +23952,10 @@
         <v/>
       </c>
       <c r="D186" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E186" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F186" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24018,10 +24012,10 @@
         <v/>
       </c>
       <c r="D187" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E187" s="82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F187" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24078,10 +24072,10 @@
         <v/>
       </c>
       <c r="D188" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E188" s="80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F188" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24138,10 +24132,10 @@
         <v/>
       </c>
       <c r="D189" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E189" s="82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F189" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24198,10 +24192,10 @@
         <v/>
       </c>
       <c r="D190" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E190" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F190" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24258,10 +24252,10 @@
         <v/>
       </c>
       <c r="D191" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E191" s="82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F191" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24318,10 +24312,10 @@
         <v/>
       </c>
       <c r="D192" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E192" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F192" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24378,10 +24372,10 @@
         <v/>
       </c>
       <c r="D193" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E193" s="82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F193" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24438,10 +24432,10 @@
         <v/>
       </c>
       <c r="D194" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E194" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F194" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24498,10 +24492,10 @@
         <v/>
       </c>
       <c r="D195" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E195" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F195" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24558,10 +24552,10 @@
         <v/>
       </c>
       <c r="D196" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E196" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F196" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24618,10 +24612,10 @@
         <v/>
       </c>
       <c r="D197" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E197" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F197" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24678,10 +24672,10 @@
         <v/>
       </c>
       <c r="D198" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E198" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F198" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24738,10 +24732,10 @@
         <v/>
       </c>
       <c r="D199" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E199" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F199" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24798,10 +24792,10 @@
         <v/>
       </c>
       <c r="D200" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E200" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F200" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24858,10 +24852,10 @@
         <v/>
       </c>
       <c r="D201" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E201" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F201" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24918,10 +24912,10 @@
         <v/>
       </c>
       <c r="D202" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E202" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F202" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24978,10 +24972,10 @@
         <v/>
       </c>
       <c r="D203" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E203" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F203" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25038,10 +25032,10 @@
         <v/>
       </c>
       <c r="D204" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E204" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F204" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25098,10 +25092,10 @@
         <v/>
       </c>
       <c r="D205" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E205" s="82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F205" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25158,10 +25152,10 @@
         <v/>
       </c>
       <c r="D206" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E206" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F206" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25218,10 +25212,10 @@
         <v/>
       </c>
       <c r="D207" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E207" s="82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F207" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25278,10 +25272,10 @@
         <v/>
       </c>
       <c r="D208" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E208" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F208" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25338,10 +25332,10 @@
         <v/>
       </c>
       <c r="D209" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E209" s="82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F209" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25398,10 +25392,10 @@
         <v/>
       </c>
       <c r="D210" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E210" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F210" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25458,10 +25452,10 @@
         <v/>
       </c>
       <c r="D211" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E211" s="82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F211" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25518,10 +25512,10 @@
         <v/>
       </c>
       <c r="D212" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E212" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F212" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25578,10 +25572,10 @@
         <v/>
       </c>
       <c r="D213" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E213" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F213" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25638,10 +25632,10 @@
         <v/>
       </c>
       <c r="D214" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E214" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F214" s="91" t="str">
         <f>CONCATENATE("to_fiiit_sum_",E214)</f>
@@ -25698,10 +25692,10 @@
         <v/>
       </c>
       <c r="D215" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E215" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F215" s="90" t="str">
         <f>CONCATENATE("died_fiiit_sum_",E215)</f>
@@ -25758,10 +25752,10 @@
         <v/>
       </c>
       <c r="D216" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E216" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F216" s="90" t="str">
         <f>CONCATENATE("btc_fiiit_sum_",E216)</f>
@@ -25818,10 +25812,10 @@
         <v/>
       </c>
       <c r="D217" s="80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E217" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F217" s="90" t="str">
         <f>CONCATENATE("ltfu_fiiit_ofu_sum_",E217)</f>
